--- a/정리본/유닛 및 건물 시스템.xlsx
+++ b/정리본/유닛 및 건물 시스템.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\정리본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62578D2-5CBD-4679-933A-77B3C6C7DC93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBF08D-0303-45A6-AA31-FAD3A2220023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통 애니메이션" sheetId="4" r:id="rId1"/>
@@ -21,14 +21,13 @@
     <sheet name="늑대 탄생" sheetId="2" r:id="rId6"/>
     <sheet name="늑대 유닛 디자인" sheetId="9" r:id="rId7"/>
     <sheet name="늑대 유닛" sheetId="1" r:id="rId8"/>
-    <sheet name="유닛 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId9"/>
+    <sheet name="늑대 무기&amp;투사체&amp;특징" sheetId="7" r:id="rId9"/>
     <sheet name="Wolf_Table" sheetId="10" r:id="rId10"/>
     <sheet name="Wave_Table" sheetId="11" r:id="rId11"/>
     <sheet name="Index" sheetId="3" r:id="rId12"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'늑대 유닛'!$A$1:$S$1</definedName>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="184">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,15 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Wolfclub_Weapon</t>
-  </si>
-  <si>
-    <t>Unit_Wolfslingshot_Weapon</t>
-  </si>
-  <si>
-    <t>Unit_Wolfshaman_Weapon</t>
-  </si>
-  <si>
     <t>특징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Wolfdestoryer_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +449,6 @@
   </si>
   <si>
     <t>단궁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wolfarcher_Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -548,22 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_Wolfthief_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wolfshooter_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wolfshieldman_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_Wolfspearman_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화살</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,6 +869,43 @@
   </si>
   <si>
     <t>공격 시간(딜레이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 약골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 유닛 공격 투사체 및 피해 적용 시간은 애니메이션 재생 시간의 절반 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfweakling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Wolfstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무막대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얇은 나무 막대를 들고 있습니다.
+다른 늑대보다 몸과 얼굴이 야위어 있습니다.
+다 헤진 넝마를 몸에 걸치고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌맹이를 손에 들고 있습니다.
+다른 늑대보다 몸과 얼굴이 야위어 있습니다.
+다 헤진 넝마를 몸에 걸치고 있습니다.
+(이 유닛의 무기/투사체/투사체 폭발은 새총수의 투사체/투사체 폭발과 동일합니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늑대 돌던지기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1323,6 +1326,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1330,7 +1346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1354,7 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1475,46 +1490,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1539,6 +1518,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9582,6 +9612,66 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2394859</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>449035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2462895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1442357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="사각형: 둥근 모서리 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D3042E-9CEC-465A-8571-60F604F6A21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2700000">
+          <a:off x="20900573" y="14831785"/>
+          <a:ext cx="993322" cy="68036"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -12767,6 +12857,609 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>639535</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1601440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1095274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="그림 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F522B0E3-A40D-4F7C-A300-819C54B4AECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8218714" y="15729857"/>
+          <a:ext cx="961905" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>979714</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>367392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1360714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D57028-F48F-496E-A68C-C8A55071D0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2700000">
+          <a:off x="8096250" y="14750142"/>
+          <a:ext cx="993322" cy="68036"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190476" cy="1009524"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0CC8A7-5EF7-4FA8-91B6-3F522CFC08AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17457964" y="1861457"/>
+          <a:ext cx="1190476" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>303439</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="961905" cy="809524"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="그림 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281A1B8A-E347-44B8-9F74-F321AAD38990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13269686" y="15747546"/>
+          <a:ext cx="961905" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2517321</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3310971</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1430111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62258D9C-7EDD-454B-B4AB-AFA91341F1A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21485678" y="15512143"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>506511</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="517746" cy="439048"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="그림 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62BF5BF4-7A99-4E8D-AFAF-52F9B61B3165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19455447" y="15958992"/>
+          <a:ext cx="517746" cy="439048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2425053</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1025769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2660118</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1223596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="그림 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289D4E7E-8AFD-4CEB-98C4-6B7C459F8AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId48">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21416438" y="16478250"/>
+          <a:ext cx="235065" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1399284</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>608135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1634349</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>805962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="그림 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36B1EFB-0E9E-4EF0-AB0B-858C657F5AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId48">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20390669" y="16060616"/>
+          <a:ext cx="235065" cy="197827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2517321</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3310971</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="그림 78" descr=" ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4D36C9-D195-4925-AAA0-1FC40634E669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId22">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="7335" b="47764" l="6387" r="28467">
+                      <a14:foregroundMark x1="17701" y1="16279" x2="21715" y2="19678"/>
+                      <a14:foregroundMark x1="12774" y1="8229" x2="14781" y2="11449"/>
+                      <a14:foregroundMark x1="19161" y1="7692" x2="20073" y2="10912"/>
+                      <a14:foregroundMark x1="6934" y1="34884" x2="11861" y2="37030"/>
+                      <a14:foregroundMark x1="12774" y1="47048" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="12774" y1="37925" x2="12774" y2="37925"/>
+                      <a14:foregroundMark x1="24270" y1="47585" x2="28467" y2="47764"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3832" t="4830" r="69161" b="49732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="21485678" y="14015357"/>
+          <a:ext cx="793650" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1251858</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>408215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1959428</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1333884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="그림 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC34F795-FBF9-4DB8-82B2-0B83AB362A21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="19014"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23975787" y="14328322"/>
+          <a:ext cx="707570" cy="925669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1251858</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1959428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1211420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="그림 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C50544-C015-4AF2-AD6F-B994EC79583D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="19014"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23975787" y="15729858"/>
+          <a:ext cx="707570" cy="925669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12819,12 +13512,6 @@
       </sheetData>
     </sheetDataSet>
   </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
 </file>
 
@@ -13182,33 +13869,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>117</v>
+      <c r="A1" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -13241,7 +13928,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="str">
@@ -13274,7 +13961,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
@@ -13307,7 +13994,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
@@ -13340,7 +14027,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
@@ -13373,7 +14060,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -13406,7 +14093,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -13439,7 +14126,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -13472,7 +14159,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -13505,7 +14192,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -13543,8 +14230,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>119</v>
+      <c r="A1" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
@@ -13556,29 +14243,29 @@
         <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="K1">
         <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="2">
@@ -13608,12 +14295,12 @@
       <c r="J2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -13645,7 +14332,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -13677,7 +14364,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -13709,7 +14396,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -13741,7 +14428,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -13773,7 +14460,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -13805,7 +14492,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -13837,7 +14524,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -13869,7 +14556,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -13901,7 +14588,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -13933,7 +14620,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -13965,7 +14652,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -13997,7 +14684,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -14029,7 +14716,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -14061,7 +14748,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -14093,7 +14780,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -14125,7 +14812,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="2">
@@ -14157,7 +14844,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -14189,7 +14876,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="2">
@@ -14221,7 +14908,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="2">
@@ -14253,7 +14940,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="2">
@@ -14285,7 +14972,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="2">
@@ -14317,7 +15004,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="2">
@@ -14349,7 +15036,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="2">
@@ -14381,7 +15068,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="2">
@@ -14413,7 +15100,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="2">
@@ -14445,7 +15132,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="2">
@@ -14477,7 +15164,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="2">
@@ -14509,7 +15196,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="2">
@@ -14568,7 +15255,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -14585,7 +15272,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -14602,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -14629,55 +15316,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="9" style="17"/>
-    <col min="11" max="11" width="8.75" style="17" customWidth="1"/>
-    <col min="12" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="13.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.75" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="17"/>
+    <col min="1" max="10" width="9" style="16"/>
+    <col min="11" max="11" width="8.75" style="16" customWidth="1"/>
+    <col min="12" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="13.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.75" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>162</v>
+      <c r="A1" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>161</v>
+      <c r="A2" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M3" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="O3" s="68" t="s">
-        <v>159</v>
+      <c r="M3" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M4" s="53">
+      <c r="M4" s="52">
         <v>1</v>
       </c>
-      <c r="N4" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>157</v>
+      <c r="N4" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="M5" s="53">
+      <c r="M5" s="52">
         <v>2</v>
       </c>
-      <c r="N5" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="O5" s="71" t="s">
-        <v>155</v>
+      <c r="N5" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -14698,470 +15385,470 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="3" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="16.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="16.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="17"/>
-    <col min="17" max="17" width="15.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="17"/>
+    <col min="1" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="16"/>
+    <col min="8" max="8" width="16.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9" style="16"/>
+    <col min="17" max="17" width="15.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="75" t="s">
+      <c r="D1" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="I1" s="75" t="s">
+      <c r="H1" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="L1" s="75" t="s">
+      <c r="K1" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="O1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="P1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="75" t="s">
-        <v>65</v>
+      <c r="R1" s="62" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="71">
-        <v>0</v>
-      </c>
-      <c r="C2" s="71" t="str">
+      <c r="A2" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="58">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58" t="str">
         <f>VLOOKUP(B2, 카테고리_유닛타입, 2,FALSE)</f>
         <v>근거리</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="58">
         <v>1</v>
       </c>
-      <c r="E2" s="71" t="str">
+      <c r="E2" s="58" t="str">
         <f>VLOOKUP(D2, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="58">
         <v>200</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="58">
         <v>5</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="58">
         <v>1</v>
       </c>
-      <c r="I2" s="71">
+      <c r="I2" s="58">
         <v>7</v>
       </c>
-      <c r="J2" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>176</v>
+      <c r="J2" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="71">
+      <c r="A3" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="58">
         <v>1</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="58" t="str">
         <f>VLOOKUP(B3, 카테고리_유닛타입, 2,FALSE)</f>
         <v>중거리</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="58">
         <v>1</v>
       </c>
-      <c r="E3" s="71" t="str">
+      <c r="E3" s="58" t="str">
         <f>VLOOKUP(D3, 카테고리_피해타입,2,FALSE)</f>
         <v>범위</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="58">
         <v>100</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="58">
         <v>10</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="58">
         <v>2</v>
       </c>
-      <c r="I3" s="71">
+      <c r="I3" s="58">
         <v>10</v>
       </c>
-      <c r="J3" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="M3" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="N3" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="R3" s="71" t="s">
-        <v>176</v>
+      <c r="J3" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="71">
+      <c r="A4" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="58">
         <v>2</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="58" t="str">
         <f>VLOOKUP(B4, 카테고리_유닛타입, 2,FALSE)</f>
         <v>원거리</v>
       </c>
-      <c r="D4" s="71">
-        <v>0</v>
-      </c>
-      <c r="E4" s="71" t="str">
+      <c r="D4" s="58">
+        <v>0</v>
+      </c>
+      <c r="E4" s="58" t="str">
         <f>VLOOKUP(D4, 카테고리_피해타입,2,FALSE)</f>
         <v>단일</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="58">
         <v>50</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="58">
         <v>20</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="58">
         <v>2</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="58">
         <v>10</v>
       </c>
-      <c r="J4" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>176</v>
+      <c r="J4" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15180,69 +15867,69 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="37.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="28.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="30.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="37.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>172</v>
+      <c r="A1" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="A4" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15261,380 +15948,380 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="17"/>
-    <col min="5" max="5" width="23.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="17" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="27" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.75" style="17" customWidth="1"/>
-    <col min="12" max="12" width="29.25" style="17" customWidth="1"/>
-    <col min="13" max="13" width="31.5" style="17" customWidth="1"/>
-    <col min="14" max="14" width="32.25" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.875" style="17" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="13.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="23.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="16" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="27" style="16" customWidth="1"/>
+    <col min="11" max="11" width="29.75" style="16" customWidth="1"/>
+    <col min="12" max="12" width="29.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="31.5" style="16" customWidth="1"/>
+    <col min="14" max="14" width="32.25" style="16" customWidth="1"/>
+    <col min="15" max="15" width="21.875" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>154</v>
+      <c r="A1" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="70" t="s">
+      <c r="A3" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="B3" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="C3" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="D3" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="69" t="s">
+      <c r="E3" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="F3" s="57" t="s">
         <v>139</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="55" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="139.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="58">
+      <c r="A4" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="54">
         <v>100</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="58">
-        <v>0</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="I4" s="66"/>
+      <c r="C4" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="64"/>
       <c r="J4" s="65"/>
-      <c r="K4" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="53" t="s">
-        <v>134</v>
+      <c r="K4" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="58">
+      <c r="A5" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="54">
         <v>50</v>
       </c>
-      <c r="C5" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="58">
+      <c r="C5" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="54">
         <v>5</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="53" t="s">
-        <v>120</v>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="58">
+      <c r="A6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="54">
         <v>100</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="58">
+      <c r="C6" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="54">
         <v>20</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="53" t="s">
-        <v>120</v>
+      <c r="E6" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="58">
+      <c r="A7" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="54">
         <v>100</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="58">
+      <c r="C7" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="54">
         <v>20</v>
       </c>
-      <c r="E7" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="53" t="s">
-        <v>125</v>
+      <c r="E7" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="52" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="58">
+      <c r="A8" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="54">
         <v>200</v>
       </c>
-      <c r="C8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="58">
+      <c r="C8" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="54">
         <v>10</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53" t="s">
-        <v>120</v>
+      <c r="E8" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="48"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="21"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G23" s="21"/>
-      <c r="H23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G24" s="21"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15686,7 +16373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87485510-6C0D-449D-BE8C-04AEF18F01EC}">
   <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -15711,10 +16398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15744,13 +16431,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -15759,10 +16446,10 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -15789,7 +16476,7 @@
         <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -15977,7 +16664,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -16012,7 +16699,7 @@
         <v>0.85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>19</v>
@@ -16038,7 +16725,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -16073,7 +16760,7 @@
         <v>1.7</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>19</v>
@@ -16099,7 +16786,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -16134,7 +16821,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>19</v>
@@ -16160,7 +16847,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -16195,7 +16882,7 @@
         <v>1.7</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>19</v>
@@ -16221,7 +16908,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -16256,7 +16943,7 @@
         <v>1.7</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>19</v>
@@ -16282,7 +16969,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -16317,7 +17004,7 @@
         <v>1.7</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>19</v>
@@ -16342,26 +17029,44 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>원거리</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>근거리</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>단일</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>범위</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="M11" s="2" t="s">
         <v>19</v>
       </c>
@@ -16385,24 +17090,44 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>근거리</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>중거리</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>단일</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="G12" s="2">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="M12" s="2" t="s">
         <v>19</v>
       </c>
@@ -16419,10 +17144,10 @@
         <v>19</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -16837,7 +17562,12 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -16864,8 +17594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFAD865-33EF-4C25-AF96-951CE5BD6453}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16883,53 +17613,53 @@
     <col min="12" max="12" width="23.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="49.25" customWidth="1"/>
     <col min="14" max="14" width="46.125" customWidth="1"/>
-    <col min="15" max="15" width="65.125" customWidth="1"/>
+    <col min="15" max="15" width="78.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="N1" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -16950,8 +17680,9 @@
       <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>56</v>
+      <c r="F2" s="10" t="str">
+        <f t="shared" ref="F2:F10" si="0">D2&amp;"_Weapon"</f>
+        <v>Unit_Wolfclub_Weapon</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
@@ -16970,9 +17701,9 @@
         <v>30</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P2"/>
     </row>
@@ -16984,7 +17715,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C10" si="0">VLOOKUP(B3,카테고리_유닛타입,2,FALSE)</f>
+        <f t="shared" ref="C3:C12" si="1">VLOOKUP(B3,카테고리_유닛타입,2,FALSE)</f>
         <v>중거리</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -16993,8 +17724,9 @@
       <c r="E3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>57</v>
+      <c r="F3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_Wolfslingshot_Weapon</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
@@ -17005,13 +17737,13 @@
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
@@ -17022,7 +17754,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>원거리</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -17031,8 +17763,9 @@
       <c r="E4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>58</v>
+      <c r="F4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Unit_Wolfshaman_Weapon</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -17043,36 +17776,37 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>근거리</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>Unit_Wolfdestoryer_Weapon</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
@@ -17091,35 +17825,36 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="10" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>중거리</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>중거리</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>Unit_Wolfarcher_Weapon</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
@@ -17131,177 +17866,260 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
       </c>
       <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>근거리</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="12" t="s">
+        <v>Unit_Wolfthief_Weapon</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="13" t="s">
-        <v>105</v>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>원거리</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>원거리</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="12" t="s">
+        <v>Unit_Wolfshooter_Weapon</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>근거리</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="str">
+      <c r="F9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>근거리</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="12" t="s">
+        <v>Unit_Wolfspearman_Weapon</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="str">
+      <c r="A10" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="77">
+        <v>0</v>
+      </c>
+      <c r="C10" s="77" t="str">
+        <f t="shared" si="1"/>
+        <v>근거리</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
+        <v>Unit_Wolfshieldman_Weapon</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="77" t="str">
+        <f t="shared" si="1"/>
         <v>근거리</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="12" t="s">
+      <c r="D11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f>D11&amp;"_Weapon"</f>
+        <v>Unit_Wolfweakling_Weapon</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="6" t="s">
-        <v>107</v>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>중거리</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="13" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/정리본/유닛 및 건물 시스템.xlsx
+++ b/정리본/유닛 및 건물 시스템.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\정리본\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrh\Desktop\CCIT_GIthub\Sheperd_Holidays\정리본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFBF08D-0303-45A6-AA31-FAD3A2220023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296EE0B-5FFC-4A91-BE40-744E04FCB439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통 애니메이션" sheetId="4" r:id="rId1"/>
@@ -54,8 +54,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="185">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -908,6 +930,10 @@
     <t>늑대 돌던지기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1518,6 +1544,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,21 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13857,10 +13883,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9AB1D1-9F44-4DF7-B600-9258127ADA8B}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14192,14 +14218,58 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="F11" s="2">
+        <f>'늑대 유닛'!K11</f>
+        <v>1.7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <f>'늑대 유닛'!K12</f>
+        <v>1.7</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14210,61 +14280,69 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81712710-3484-4EB9-A929-3A6AD75B31FD}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1">
-        <v>1231</v>
+      <c r="M1" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -14275,45 +14353,55 @@
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13" cm="1">
+        <f t="array" ref="M2">SUM(B2:C2*0.8,D2:F2,H2:L2*1.5)+G2*5</f>
+        <v>8</v>
+      </c>
+      <c r="N2" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -14330,25 +14418,35 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" cm="1">
+        <f t="array" ref="M3">SUM(B3:C3*0.8,D3:F3,H3:L3*1.5)+G3*5</f>
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -14362,25 +14460,35 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13" cm="1">
+        <f t="array" ref="M4">SUM(B4:C4*0.8,D4:F4,H4:L4*1.5)+G4*5</f>
+        <v>14.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -14394,8 +14502,18 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13" cm="1">
+        <f t="array" ref="M5">SUM(B5:C5*0.8,D5:F5,H5:L5*1.5)+G5*5</f>
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -14406,16 +14524,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -14426,8 +14544,21 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13" cm="1">
+        <f t="array" ref="M6">SUM(B6:C6*0.8,D6:F6,H6:L6*1.5)+G6*5</f>
+        <v>21</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -14438,19 +14569,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -14458,8 +14589,18 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13" cm="1">
+        <f t="array" ref="M7">SUM(B7:C7*0.8,D7:F7,H7:L7*1.5)+G7*5</f>
+        <v>20.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -14470,28 +14611,38 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" cm="1">
+        <f t="array" ref="M8">SUM(B8:C8*0.8,D8:F8,H8:L8*1.5)+G8*5</f>
+        <v>22.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -14502,13 +14653,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -14517,18 +14668,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" cm="1">
+        <f t="array" ref="M9">SUM(B9:C9*0.8,D9:F9,H9:L9*1.5)+G9*5</f>
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -14554,8 +14715,21 @@
       <c r="J10" s="2">
         <v>0</v>
       </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13" cm="1">
+        <f t="array" ref="M10">SUM(B10:C10*0.8,D10:F10,H10:L10*1.5)+G10*5</f>
+        <v>16</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -14578,16 +14752,26 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
       </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="13" cm="1">
+        <f t="array" ref="M11">SUM(B11:C11*0.8,D11:F11,H11:L11*1.5)+G11*5</f>
+        <v>25.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -14598,28 +14782,38 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>3</v>
+      </c>
+      <c r="M12" s="13" cm="1">
+        <f t="array" ref="M12">SUM(B12:C12*0.8,D12:F12,H12:L12*1.5)+G12*5</f>
+        <v>27.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -14630,13 +14824,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -14650,8 +14844,18 @@
       <c r="J13" s="2">
         <v>0</v>
       </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="13" cm="1">
+        <f t="array" ref="M13">SUM(B13:C13*0.8,D13:F13,H13:L13*1.5)+G13*5</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -14671,19 +14875,32 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
       <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" cm="1">
+        <f t="array" ref="M14">SUM(B14:C14*0.8,D14:F14,H14:L14*1.5)+G14*5</f>
+        <v>40</v>
+      </c>
+      <c r="N14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -14691,31 +14908,41 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13" cm="1">
+        <f t="array" ref="M15">SUM(B15:C15*0.8,D15:F15,H15:L15*1.5)+G15*5</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -14726,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -14741,13 +14968,23 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
       </c>
+      <c r="K16" s="2">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13" cm="1">
+        <f t="array" ref="M16">SUM(B16:C16*0.8,D16:F16,H16:L16*1.5)+G16*5</f>
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -14758,19 +14995,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -14778,16 +15015,26 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
+      <c r="M17" s="13" cm="1">
+        <f t="array" ref="M17">SUM(B17:C17*0.8,D17:F17,H17:L17*1.5)+G17*5</f>
+        <v>39.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -14810,8 +15057,21 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13" cm="1">
+        <f t="array" ref="M18">SUM(B18:C18*0.8,D18:F18,H18:L18*1.5)+G18*5</f>
+        <v>28</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -14837,13 +15097,23 @@
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
       </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13" cm="1">
+        <f t="array" ref="M19">SUM(B19:C19*0.8,D19:F19,H19:L19*1.5)+G19*5</f>
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -14851,31 +15121,41 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13" cm="1">
+        <f t="array" ref="M20">SUM(B20:C20*0.8,D20:F20,H20:L20*1.5)+G20*5</f>
+        <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -14886,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -14906,8 +15186,18 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13" cm="1">
+        <f t="array" ref="M21">SUM(B21:C21*0.8,D21:F21,H21:L21*1.5)+G21*5</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -14927,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -14938,8 +15228,21 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13" cm="1">
+        <f t="array" ref="M22">SUM(B22:C22*0.8,D22:F22,H22:L22*1.5)+G22*5</f>
+        <v>15</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -14950,28 +15253,38 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
       </c>
+      <c r="K23" s="2">
+        <v>3</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13" cm="1">
+        <f t="array" ref="M23">SUM(B23:C23*0.8,D23:F23,H23:L23*1.5)+G23*5</f>
+        <v>42.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -14982,28 +15295,38 @@
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="13" cm="1">
+        <f t="array" ref="M24">SUM(B24:C24*0.8,D24:F24,H24:L24*1.5)+G24*5</f>
+        <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -15014,36 +15337,46 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
       </c>
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3</v>
+      </c>
+      <c r="M25" s="13" cm="1">
+        <f t="array" ref="M25">SUM(B25:C25*0.8,D25:F25,H25:L25*1.5)+G25*5</f>
+        <v>48.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
@@ -15066,8 +15399,21 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>10</v>
+      </c>
+      <c r="M26" s="13" cm="1">
+        <f t="array" ref="M26">SUM(B26:C26*0.8,D26:F26,H26:L26*1.5)+G26*5</f>
+        <v>31</v>
+      </c>
+      <c r="N26" s="15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -15078,28 +15424,38 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K27" s="2">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2">
+        <v>6</v>
+      </c>
+      <c r="M27" s="13" cm="1">
+        <f t="array" ref="M27">SUM(B27:C27*0.8,D27:F27,H27:L27*1.5)+G27*5</f>
+        <v>61.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -15110,13 +15466,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -15125,13 +15481,23 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>7</v>
+      </c>
+      <c r="M28" s="13" cm="1">
+        <f t="array" ref="M28">SUM(B28:C28*0.8,D28:F28,H28:L28*1.5)+G28*5</f>
+        <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -15142,28 +15508,38 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>8</v>
+      </c>
+      <c r="M29" s="13" cm="1">
+        <f t="array" ref="M29">SUM(B29:C29*0.8,D29:F29,H29:L29*1.5)+G29*5</f>
+        <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -15174,56 +15550,82 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>5</v>
+      </c>
+      <c r="L30" s="2">
+        <v>8</v>
+      </c>
+      <c r="M30" s="13" cm="1">
+        <f t="array" ref="M30">SUM(B30:C30*0.8,D30:F30,H30:L30*1.5)+G30*5</f>
+        <v>99.5</v>
+      </c>
+      <c r="N30" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J31" s="2">
+        <v>10</v>
+      </c>
+      <c r="K31" s="2">
+        <v>10</v>
+      </c>
+      <c r="L31" s="2">
+        <v>10</v>
+      </c>
+      <c r="M31" s="13" cm="1">
+        <f t="array" ref="M31">SUM(B31:C31*0.8,D31:F31,H31:L31*1.5)+G31*5</f>
+        <v>162</v>
+      </c>
+      <c r="N31" s="15">
         <v>0</v>
       </c>
     </row>
@@ -16036,17 +16438,17 @@
         <v>128</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="72" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="77" t="s">
         <v>126</v>
       </c>
       <c r="L4" s="37"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="69"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="52" t="s">
         <v>125</v>
       </c>
@@ -16074,10 +16476,10 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="73"/>
+      <c r="K5" s="78"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="70"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="52" t="s">
         <v>111</v>
       </c>
@@ -16105,10 +16507,10 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
-      <c r="K6" s="73"/>
+      <c r="K6" s="78"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="70"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="52" t="s">
         <v>111</v>
       </c>
@@ -16136,10 +16538,10 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="73"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="50"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="70"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="75"/>
       <c r="O7" s="52" t="s">
         <v>116</v>
       </c>
@@ -16167,10 +16569,10 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="74"/>
+      <c r="K8" s="79"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="71"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="52" t="s">
         <v>111</v>
       </c>
@@ -16400,8 +16802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17617,49 +18019,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="75" t="s">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="64" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17997,45 +18399,45 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="77">
-        <v>0</v>
-      </c>
-      <c r="C10" s="77" t="str">
+      <c r="B10" s="65">
+        <v>0</v>
+      </c>
+      <c r="C10" s="65" t="str">
         <f t="shared" si="1"/>
         <v>근거리</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="66" t="s">
         <v>92</v>
       </c>
       <c r="F10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Unit_Wolfshieldman_Weapon</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="79" t="s">
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="67" t="s">
         <v>98</v>
       </c>
     </row>
@@ -18046,7 +18448,7 @@
       <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="77" t="str">
+      <c r="C11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>근거리</v>
       </c>

--- a/정리본/유닛 및 건물 시스템.xlsx
+++ b/정리본/유닛 및 건물 시스템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrh\Desktop\CCIT_GIthub\Sheperd_Holidays\정리본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296EE0B-5FFC-4A91-BE40-744E04FCB439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF0BEAA-2870-49A1-A8A8-A2AFB49BF601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통 애니메이션" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="184">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,34 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -933,6 +905,24 @@
   <si>
     <t>SUM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>AttackType</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>AttackDelay</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
   </si>
 </sst>
 </file>
@@ -13883,393 +13873,373 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9AB1D1-9F44-4DF7-B600-9258127ADA8B}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>109</v>
+      <c r="B1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="str">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
         <f>'늑대 유닛'!L2</f>
         <v>Unit_Wolfclub</v>
       </c>
+      <c r="B2" s="2">
+        <f>'늑대 유닛'!D2</f>
+        <v>1.5</v>
+      </c>
       <c r="C2" s="2">
-        <f>'늑대 유닛'!H2</f>
-        <v>10</v>
+        <f>'늑대 유닛'!E2</f>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <f>'늑대 유닛'!G2</f>
         <v>100</v>
       </c>
       <c r="E2" s="2">
-        <f>'늑대 유닛'!D2</f>
-        <v>1.5</v>
+        <f>'늑대 유닛'!H2</f>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
+        <f>'늑대 유닛'!J2</f>
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
         <f>'늑대 유닛'!K2</f>
         <v>1.7</v>
       </c>
-      <c r="G2" s="2">
-        <f>'늑대 유닛'!J2</f>
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <f>'늑대 유닛'!E2</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
         <f>'늑대 유닛'!L3</f>
         <v>Unit_Wolfslingshot</v>
       </c>
+      <c r="B3" s="2">
+        <f>'늑대 유닛'!D3</f>
+        <v>3.5</v>
+      </c>
       <c r="C3" s="2">
-        <f>'늑대 유닛'!H3</f>
-        <v>20</v>
+        <f>'늑대 유닛'!E3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <f>'늑대 유닛'!G3</f>
         <v>80</v>
       </c>
       <c r="E3" s="2">
-        <f>'늑대 유닛'!D3</f>
-        <v>3.5</v>
+        <f>'늑대 유닛'!H3</f>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
+        <f>'늑대 유닛'!J3</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
         <f>'늑대 유닛'!K3</f>
         <v>1.7</v>
       </c>
-      <c r="G3" s="2">
-        <f>'늑대 유닛'!J3</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <f>'늑대 유닛'!E3</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
         <f>'늑대 유닛'!L4</f>
         <v>Unit_Wolfshaman</v>
       </c>
+      <c r="B4" s="2">
+        <f>'늑대 유닛'!D4</f>
+        <v>5.5</v>
+      </c>
       <c r="C4" s="2">
-        <f>'늑대 유닛'!H4</f>
-        <v>30</v>
+        <f>'늑대 유닛'!E4</f>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <f>'늑대 유닛'!G4</f>
         <v>60</v>
       </c>
       <c r="E4" s="2">
-        <f>'늑대 유닛'!D4</f>
-        <v>5.5</v>
+        <f>'늑대 유닛'!H4</f>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
+        <f>'늑대 유닛'!J4</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
         <f>'늑대 유닛'!K4</f>
         <v>1.7</v>
       </c>
-      <c r="G4" s="2">
-        <f>'늑대 유닛'!J4</f>
-        <v>2</v>
-      </c>
-      <c r="H4" s="2">
-        <f>'늑대 유닛'!E4</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="str">
         <f>'늑대 유닛'!L5</f>
         <v>Unit_Wolfdestoryer</v>
       </c>
+      <c r="B5" s="2">
+        <f>'늑대 유닛'!D5</f>
+        <v>2.5</v>
+      </c>
       <c r="C5" s="2">
-        <f>'늑대 유닛'!H5</f>
-        <v>60</v>
+        <f>'늑대 유닛'!E5</f>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <f>'늑대 유닛'!G5</f>
         <v>1000</v>
       </c>
       <c r="E5" s="2">
-        <f>'늑대 유닛'!D5</f>
-        <v>2.5</v>
+        <f>'늑대 유닛'!H5</f>
+        <v>60</v>
       </c>
       <c r="F5" s="2">
+        <f>'늑대 유닛'!J5</f>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
         <f>'늑대 유닛'!K5</f>
         <v>0.85</v>
       </c>
-      <c r="G5" s="2">
-        <f>'늑대 유닛'!J5</f>
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
-        <f>'늑대 유닛'!E5</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
         <f>'늑대 유닛'!L6</f>
         <v>Unit_Wolfarcher</v>
       </c>
+      <c r="B6" s="2">
+        <f>'늑대 유닛'!D6</f>
+        <v>3.5</v>
+      </c>
       <c r="C6" s="2">
-        <f>'늑대 유닛'!H6</f>
-        <v>30</v>
+        <f>'늑대 유닛'!E6</f>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>'늑대 유닛'!G6</f>
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <f>'늑대 유닛'!D6</f>
-        <v>3.5</v>
+        <f>'늑대 유닛'!H6</f>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
+        <f>'늑대 유닛'!J6</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
         <f>'늑대 유닛'!K6</f>
         <v>1.7</v>
       </c>
-      <c r="G6" s="2">
-        <f>'늑대 유닛'!J6</f>
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <f>'늑대 유닛'!E6</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="str">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="str">
         <f>'늑대 유닛'!L7</f>
         <v>Unit_Wolfthief</v>
       </c>
+      <c r="B7" s="2">
+        <f>'늑대 유닛'!D7</f>
+        <v>1.2</v>
+      </c>
       <c r="C7" s="2">
-        <f>'늑대 유닛'!H7</f>
-        <v>25</v>
+        <f>'늑대 유닛'!E7</f>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <f>'늑대 유닛'!G7</f>
         <v>60</v>
       </c>
       <c r="E7" s="2">
-        <f>'늑대 유닛'!D7</f>
-        <v>1.2</v>
+        <f>'늑대 유닛'!H7</f>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
+        <f>'늑대 유닛'!J7</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
         <f>'늑대 유닛'!K7</f>
         <v>2</v>
       </c>
-      <c r="G7" s="2">
-        <f>'늑대 유닛'!J7</f>
-        <v>2</v>
-      </c>
-      <c r="H7" s="2">
-        <f>'늑대 유닛'!E7</f>
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="str">
         <f>'늑대 유닛'!L8</f>
         <v>Unit_Wolfshooter</v>
       </c>
+      <c r="B8" s="2">
+        <f>'늑대 유닛'!D8</f>
+        <v>4.5</v>
+      </c>
       <c r="C8" s="2">
-        <f>'늑대 유닛'!H8</f>
-        <v>50</v>
+        <f>'늑대 유닛'!E8</f>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <f>'늑대 유닛'!G8</f>
         <v>50</v>
       </c>
       <c r="E8" s="2">
-        <f>'늑대 유닛'!D8</f>
-        <v>4.5</v>
+        <f>'늑대 유닛'!H8</f>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
+        <f>'늑대 유닛'!J8</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
         <f>'늑대 유닛'!K8</f>
         <v>1.7</v>
       </c>
-      <c r="G8" s="2">
-        <f>'늑대 유닛'!J8</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>'늑대 유닛'!E8</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="str">
         <f>'늑대 유닛'!L9</f>
         <v>Unit_Wolfspearman</v>
       </c>
+      <c r="B9" s="2">
+        <f>'늑대 유닛'!D9</f>
+        <v>2.5</v>
+      </c>
       <c r="C9" s="2">
-        <f>'늑대 유닛'!H9</f>
-        <v>25</v>
+        <f>'늑대 유닛'!E9</f>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <f>'늑대 유닛'!G9</f>
         <v>90</v>
       </c>
       <c r="E9" s="2">
-        <f>'늑대 유닛'!D9</f>
-        <v>2.5</v>
+        <f>'늑대 유닛'!H9</f>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
+        <f>'늑대 유닛'!J9</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
         <f>'늑대 유닛'!K9</f>
         <v>1.7</v>
       </c>
-      <c r="G9" s="2">
-        <f>'늑대 유닛'!J9</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <f>'늑대 유닛'!E9</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="str">
         <f>'늑대 유닛'!L10</f>
         <v>Unit_Wolfshieldman</v>
       </c>
+      <c r="B10" s="2">
+        <f>'늑대 유닛'!D10</f>
+        <v>0.5</v>
+      </c>
       <c r="C10" s="2">
-        <f>'늑대 유닛'!H10</f>
-        <v>0</v>
+        <f>'늑대 유닛'!E10</f>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>'늑대 유닛'!G10</f>
         <v>300</v>
       </c>
       <c r="E10" s="2">
-        <f>'늑대 유닛'!D10</f>
-        <v>0.5</v>
+        <f>'늑대 유닛'!H10</f>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
+        <f>'늑대 유닛'!J10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <f>'늑대 유닛'!K10</f>
         <v>1.7</v>
       </c>
-      <c r="G10" s="2">
-        <f>'늑대 유닛'!J10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <f>'늑대 유닛'!E10</f>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
       </c>
       <c r="E11" s="2">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
         <f>'늑대 유닛'!K11</f>
         <v>1.7</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2">
         <f>'늑대 유닛'!K12</f>
         <v>1.7</v>
       </c>
-      <c r="G12" s="13">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14282,7 +14252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81712710-3484-4EB9-A929-3A6AD75B31FD}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -14303,13 +14273,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -14339,7 +14309,7 @@
         <v>87</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -15728,23 +15698,23 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="M3" s="55" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N3" s="55" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O3" s="55" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -15752,10 +15722,10 @@
         <v>1</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -15763,10 +15733,10 @@
         <v>2</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -15825,7 +15795,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="62" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I1" s="62" t="s">
         <v>5</v>
@@ -15834,7 +15804,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L1" s="62" t="s">
         <v>7</v>
@@ -15860,7 +15830,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="58">
         <v>0</v>
@@ -15889,36 +15859,36 @@
         <v>7</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L2" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O2" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P2" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B3" s="58">
         <v>1</v>
@@ -15947,36 +15917,36 @@
         <v>10</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L3" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O3" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P3" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R3" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B4" s="58">
         <v>2</v>
@@ -16005,31 +15975,31 @@
         <v>10</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="58" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R4" s="58" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -16279,56 +16249,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D4" s="52"/>
       <c r="E4" s="52"/>
@@ -16368,109 +16338,109 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D3" s="57" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K3" s="57" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L3" s="57" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="N3" s="56" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="O3" s="55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="139.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B4" s="54">
         <v>100</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D4" s="54">
         <v>0</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="68" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="70"/>
       <c r="K4" s="77" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="71"/>
       <c r="N4" s="74"/>
       <c r="O4" s="52" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B5" s="54">
         <v>50</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D5" s="54">
         <v>5</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
@@ -16481,27 +16451,27 @@
       <c r="M5" s="72"/>
       <c r="N5" s="75"/>
       <c r="O5" s="52" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B6" s="54">
         <v>100</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D6" s="54">
         <v>20</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
@@ -16512,27 +16482,27 @@
       <c r="M6" s="72"/>
       <c r="N6" s="75"/>
       <c r="O6" s="52" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="135" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B7" s="54">
         <v>100</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D7" s="54">
         <v>20</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
@@ -16543,27 +16513,27 @@
       <c r="M7" s="72"/>
       <c r="N7" s="75"/>
       <c r="O7" s="52" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" s="54">
         <v>200</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D8" s="54">
         <v>10</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
@@ -16574,7 +16544,7 @@
       <c r="M8" s="73"/>
       <c r="N8" s="76"/>
       <c r="O8" s="52" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -17432,7 +17402,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -17467,7 +17437,7 @@
         <v>1.7</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>19</v>
@@ -17493,7 +17463,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -17528,7 +17498,7 @@
         <v>1.7</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>19</v>
@@ -17969,7 +17939,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -18443,7 +18413,7 @@
     </row>
     <row r="11" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -18453,10 +18423,10 @@
         <v>근거리</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>D11&amp;"_Weapon"</f>
@@ -18481,12 +18451,12 @@
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -18496,7 +18466,7 @@
         <v>중거리</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>45</v>
@@ -18519,7 +18489,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/정리본/유닛 및 건물 시스템.xlsx
+++ b/정리본/유닛 및 건물 시스템.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrh\Desktop\CCIT_GIthub\Sheperd_Holidays\정리본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF0BEAA-2870-49A1-A8A8-A2AFB49BF601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52947664-7025-4F49-89F9-F30CDB687135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="185">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -924,6 +924,10 @@
   <si>
     <t>MoveSpeed</t>
   </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1362,7 +1366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1584,6 +1588,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13873,365 +13880,400 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9AB1D1-9F44-4DF7-B600-9258127ADA8B}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="80" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="str">
         <f>'늑대 유닛'!L2</f>
         <v>Unit_Wolfclub</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <f>'늑대 유닛'!D2</f>
         <v>1.5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <f>'늑대 유닛'!E2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <f>'늑대 유닛'!G2</f>
         <v>100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <f>'늑대 유닛'!H2</f>
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <f>'늑대 유닛'!J2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <f>'늑대 유닛'!K2</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="str">
         <f>'늑대 유닛'!L3</f>
         <v>Unit_Wolfslingshot</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <f>'늑대 유닛'!D3</f>
         <v>3.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <f>'늑대 유닛'!E3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <f>'늑대 유닛'!G3</f>
         <v>80</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <f>'늑대 유닛'!H3</f>
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <f>'늑대 유닛'!J3</f>
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <f>'늑대 유닛'!K3</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="str">
         <f>'늑대 유닛'!L4</f>
         <v>Unit_Wolfshaman</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <f>'늑대 유닛'!D4</f>
         <v>5.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <f>'늑대 유닛'!E4</f>
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <f>'늑대 유닛'!G4</f>
         <v>60</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f>'늑대 유닛'!H4</f>
         <v>30</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>'늑대 유닛'!J4</f>
         <v>2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f>'늑대 유닛'!K4</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="str">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="str">
         <f>'늑대 유닛'!L5</f>
         <v>Unit_Wolfdestoryer</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <f>'늑대 유닛'!D5</f>
         <v>2.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <f>'늑대 유닛'!E5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <f>'늑대 유닛'!G5</f>
         <v>1000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f>'늑대 유닛'!H5</f>
         <v>60</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <f>'늑대 유닛'!J5</f>
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <f>'늑대 유닛'!K5</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="str">
         <f>'늑대 유닛'!L6</f>
         <v>Unit_Wolfarcher</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <f>'늑대 유닛'!D6</f>
         <v>3.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <f>'늑대 유닛'!E6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <f>'늑대 유닛'!G6</f>
         <v>100</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f>'늑대 유닛'!H6</f>
         <v>30</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <f>'늑대 유닛'!J6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f>'늑대 유닛'!K6</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="str">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>'늑대 유닛'!L7</f>
         <v>Unit_Wolfthief</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <f>'늑대 유닛'!D7</f>
         <v>1.2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <f>'늑대 유닛'!E7</f>
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <f>'늑대 유닛'!G7</f>
         <v>60</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f>'늑대 유닛'!H7</f>
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <f>'늑대 유닛'!J7</f>
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f>'늑대 유닛'!K7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="str">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="str">
         <f>'늑대 유닛'!L8</f>
         <v>Unit_Wolfshooter</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <f>'늑대 유닛'!D8</f>
         <v>4.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <f>'늑대 유닛'!E8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <f>'늑대 유닛'!G8</f>
         <v>50</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f>'늑대 유닛'!H8</f>
         <v>50</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <f>'늑대 유닛'!J8</f>
         <v>2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f>'늑대 유닛'!K8</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="str">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="str">
         <f>'늑대 유닛'!L9</f>
         <v>Unit_Wolfspearman</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <f>'늑대 유닛'!D9</f>
         <v>2.5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <f>'늑대 유닛'!E9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <f>'늑대 유닛'!G9</f>
         <v>90</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f>'늑대 유닛'!H9</f>
         <v>25</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <f>'늑대 유닛'!J9</f>
         <v>2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f>'늑대 유닛'!K9</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="str">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="str">
         <f>'늑대 유닛'!L10</f>
         <v>Unit_Wolfshieldman</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <f>'늑대 유닛'!D10</f>
         <v>0.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <f>'늑대 유닛'!E10</f>
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <f>'늑대 유닛'!G10</f>
         <v>300</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f>'늑대 유닛'!H10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <f>'늑대 유닛'!J10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f>'늑대 유닛'!K10</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>1.3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>50</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f>'늑대 유닛'!K11</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>30</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="13">
         <v>2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <f>'늑대 유닛'!K12</f>
         <v>1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I14" s="3"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -14240,6 +14282,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/정리본/유닛 및 건물 시스템.xlsx
+++ b/정리본/유닛 및 건물 시스템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdrh\Desktop\CCIT_GIthub\Sheperd_Holidays\정리본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52947664-7025-4F49-89F9-F30CDB687135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC3CF2-0659-4CF4-A81E-802D44C21151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공통 애니메이션" sheetId="4" r:id="rId1"/>
@@ -1553,6 +1553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,9 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13883,7 +13883,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13903,22 +13903,22 @@
       <c r="B1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="68" t="s">
         <v>183</v>
       </c>
     </row>
@@ -13926,32 +13926,26 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="str">
-        <f>'늑대 유닛'!L2</f>
-        <v>Unit_Wolfclub</v>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="2">
-        <f>'늑대 유닛'!D2</f>
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="D2" s="2">
-        <f>'늑대 유닛'!E2</f>
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>'늑대 유닛'!G2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2">
-        <f>'늑대 유닛'!H2</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2">
-        <f>'늑대 유닛'!J2</f>
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <f>'늑대 유닛'!K2</f>
+        <f>'늑대 유닛'!K11</f>
         <v>1.7</v>
       </c>
     </row>
@@ -13959,32 +13953,26 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="str">
-        <f>'늑대 유닛'!L3</f>
-        <v>Unit_Wolfslingshot</v>
+      <c r="B3" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="C3" s="2">
-        <f>'늑대 유닛'!D3</f>
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="2">
-        <f>'늑대 유닛'!E3</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>'늑대 유닛'!G3</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
-        <f>'늑대 유닛'!H3</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <f>'늑대 유닛'!J3</f>
+        <v>8</v>
+      </c>
+      <c r="G3" s="13">
         <v>2</v>
       </c>
       <c r="H3" s="2">
-        <f>'늑대 유닛'!K3</f>
+        <f>'늑대 유닛'!K12</f>
         <v>1.7</v>
       </c>
     </row>
@@ -13993,31 +13981,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>'늑대 유닛'!L4</f>
-        <v>Unit_Wolfshaman</v>
+        <f>'늑대 유닛'!L2</f>
+        <v>Unit_Wolfclub</v>
       </c>
       <c r="C4" s="2">
-        <f>'늑대 유닛'!D4</f>
-        <v>5.5</v>
+        <f>'늑대 유닛'!D2</f>
+        <v>1.5</v>
       </c>
       <c r="D4" s="2">
-        <f>'늑대 유닛'!E4</f>
+        <f>'늑대 유닛'!E2</f>
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>'늑대 유닛'!G4</f>
-        <v>60</v>
+        <f>'늑대 유닛'!G2</f>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
-        <f>'늑대 유닛'!H4</f>
-        <v>30</v>
+        <f>'늑대 유닛'!H2</f>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
-        <f>'늑대 유닛'!J4</f>
+        <f>'늑대 유닛'!J2</f>
         <v>2</v>
       </c>
       <c r="H4" s="2">
-        <f>'늑대 유닛'!K4</f>
+        <f>'늑대 유닛'!K2</f>
         <v>1.7</v>
       </c>
     </row>
@@ -14026,32 +14014,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>'늑대 유닛'!L5</f>
-        <v>Unit_Wolfdestoryer</v>
+        <f>'늑대 유닛'!L3</f>
+        <v>Unit_Wolfslingshot</v>
       </c>
       <c r="C5" s="2">
-        <f>'늑대 유닛'!D5</f>
-        <v>2.5</v>
+        <f>'늑대 유닛'!D3</f>
+        <v>3.5</v>
       </c>
       <c r="D5" s="2">
-        <f>'늑대 유닛'!E5</f>
-        <v>1</v>
+        <f>'늑대 유닛'!E3</f>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>'늑대 유닛'!G5</f>
-        <v>1000</v>
+        <f>'늑대 유닛'!G3</f>
+        <v>80</v>
       </c>
       <c r="F5" s="2">
-        <f>'늑대 유닛'!H5</f>
-        <v>60</v>
+        <f>'늑대 유닛'!H3</f>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
-        <f>'늑대 유닛'!J5</f>
+        <f>'늑대 유닛'!J3</f>
         <v>2</v>
       </c>
       <c r="H5" s="2">
-        <f>'늑대 유닛'!K5</f>
-        <v>0.85</v>
+        <f>'늑대 유닛'!K3</f>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -14059,31 +14047,31 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>'늑대 유닛'!L6</f>
-        <v>Unit_Wolfarcher</v>
+        <f>'늑대 유닛'!L4</f>
+        <v>Unit_Wolfshaman</v>
       </c>
       <c r="C6" s="2">
-        <f>'늑대 유닛'!D6</f>
-        <v>3.5</v>
+        <f>'늑대 유닛'!D4</f>
+        <v>5.5</v>
       </c>
       <c r="D6" s="2">
-        <f>'늑대 유닛'!E6</f>
-        <v>0</v>
+        <f>'늑대 유닛'!E4</f>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>'늑대 유닛'!G6</f>
-        <v>100</v>
+        <f>'늑대 유닛'!G4</f>
+        <v>60</v>
       </c>
       <c r="F6" s="2">
-        <f>'늑대 유닛'!H6</f>
+        <f>'늑대 유닛'!H4</f>
         <v>30</v>
       </c>
       <c r="G6" s="2">
-        <f>'늑대 유닛'!J6</f>
+        <f>'늑대 유닛'!J4</f>
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <f>'늑대 유닛'!K6</f>
+        <f>'늑대 유닛'!K4</f>
         <v>1.7</v>
       </c>
     </row>
@@ -14092,32 +14080,32 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>'늑대 유닛'!L7</f>
-        <v>Unit_Wolfthief</v>
+        <f>'늑대 유닛'!L5</f>
+        <v>Unit_Wolfdestoryer</v>
       </c>
       <c r="C7" s="2">
-        <f>'늑대 유닛'!D7</f>
-        <v>1.2</v>
+        <f>'늑대 유닛'!D5</f>
+        <v>2.5</v>
       </c>
       <c r="D7" s="2">
-        <f>'늑대 유닛'!E7</f>
+        <f>'늑대 유닛'!E5</f>
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>'늑대 유닛'!G7</f>
+        <f>'늑대 유닛'!G5</f>
+        <v>1000</v>
+      </c>
+      <c r="F7" s="2">
+        <f>'늑대 유닛'!H5</f>
         <v>60</v>
       </c>
-      <c r="F7" s="2">
-        <f>'늑대 유닛'!H7</f>
-        <v>25</v>
-      </c>
       <c r="G7" s="2">
-        <f>'늑대 유닛'!J7</f>
+        <f>'늑대 유닛'!J5</f>
         <v>2</v>
       </c>
       <c r="H7" s="2">
-        <f>'늑대 유닛'!K7</f>
-        <v>2</v>
+        <f>'늑대 유닛'!K5</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -14125,31 +14113,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>'늑대 유닛'!L8</f>
-        <v>Unit_Wolfshooter</v>
+        <f>'늑대 유닛'!L6</f>
+        <v>Unit_Wolfarcher</v>
       </c>
       <c r="C8" s="2">
-        <f>'늑대 유닛'!D8</f>
-        <v>4.5</v>
+        <f>'늑대 유닛'!D6</f>
+        <v>3.5</v>
       </c>
       <c r="D8" s="2">
-        <f>'늑대 유닛'!E8</f>
+        <f>'늑대 유닛'!E6</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f>'늑대 유닛'!G8</f>
-        <v>50</v>
+        <f>'늑대 유닛'!G6</f>
+        <v>100</v>
       </c>
       <c r="F8" s="2">
-        <f>'늑대 유닛'!H8</f>
-        <v>50</v>
+        <f>'늑대 유닛'!H6</f>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
-        <f>'늑대 유닛'!J8</f>
+        <f>'늑대 유닛'!J6</f>
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <f>'늑대 유닛'!K8</f>
+        <f>'늑대 유닛'!K6</f>
         <v>1.7</v>
       </c>
     </row>
@@ -14158,32 +14146,32 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>'늑대 유닛'!L9</f>
-        <v>Unit_Wolfspearman</v>
+        <f>'늑대 유닛'!L7</f>
+        <v>Unit_Wolfthief</v>
       </c>
       <c r="C9" s="2">
-        <f>'늑대 유닛'!D9</f>
-        <v>2.5</v>
+        <f>'늑대 유닛'!D7</f>
+        <v>1.2</v>
       </c>
       <c r="D9" s="2">
-        <f>'늑대 유닛'!E9</f>
-        <v>0</v>
+        <f>'늑대 유닛'!E7</f>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <f>'늑대 유닛'!G9</f>
-        <v>90</v>
+        <f>'늑대 유닛'!G7</f>
+        <v>60</v>
       </c>
       <c r="F9" s="2">
-        <f>'늑대 유닛'!H9</f>
+        <f>'늑대 유닛'!H7</f>
         <v>25</v>
       </c>
       <c r="G9" s="2">
-        <f>'늑대 유닛'!J9</f>
+        <f>'늑대 유닛'!J7</f>
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <f>'늑대 유닛'!K9</f>
-        <v>1.7</v>
+        <f>'늑대 유닛'!K7</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -14191,31 +14179,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>'늑대 유닛'!L10</f>
-        <v>Unit_Wolfshieldman</v>
+        <f>'늑대 유닛'!L8</f>
+        <v>Unit_Wolfshooter</v>
       </c>
       <c r="C10" s="2">
-        <f>'늑대 유닛'!D10</f>
-        <v>0.5</v>
+        <f>'늑대 유닛'!D8</f>
+        <v>4.5</v>
       </c>
       <c r="D10" s="2">
-        <f>'늑대 유닛'!E10</f>
-        <v>1</v>
+        <f>'늑대 유닛'!E8</f>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f>'늑대 유닛'!G10</f>
-        <v>300</v>
+        <f>'늑대 유닛'!G8</f>
+        <v>50</v>
       </c>
       <c r="F10" s="2">
-        <f>'늑대 유닛'!H10</f>
-        <v>0</v>
+        <f>'늑대 유닛'!H8</f>
+        <v>50</v>
       </c>
       <c r="G10" s="2">
-        <f>'늑대 유닛'!J10</f>
-        <v>0</v>
+        <f>'늑대 유닛'!J8</f>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <f>'늑대 유닛'!K10</f>
+        <f>'늑대 유닛'!K8</f>
         <v>1.7</v>
       </c>
     </row>
@@ -14223,26 +14211,32 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>171</v>
+      <c r="B11" s="2" t="str">
+        <f>'늑대 유닛'!L9</f>
+        <v>Unit_Wolfspearman</v>
       </c>
       <c r="C11" s="2">
-        <v>1.3</v>
+        <f>'늑대 유닛'!D9</f>
+        <v>2.5</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <f>'늑대 유닛'!E9</f>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
+        <f>'늑대 유닛'!G9</f>
+        <v>90</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <f>'늑대 유닛'!H9</f>
+        <v>25</v>
       </c>
       <c r="G11" s="2">
+        <f>'늑대 유닛'!J9</f>
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <f>'늑대 유닛'!K11</f>
+        <f>'늑대 유닛'!K9</f>
         <v>1.7</v>
       </c>
     </row>
@@ -14250,26 +14244,32 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
+      <c r="B12" s="2" t="str">
+        <f>'늑대 유닛'!L10</f>
+        <v>Unit_Wolfshieldman</v>
       </c>
       <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
+        <f>'늑대 유닛'!D10</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="2">
+        <f>'늑대 유닛'!E10</f>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>30</v>
+        <f>'늑대 유닛'!G10</f>
+        <v>300</v>
       </c>
       <c r="F12" s="2">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13">
-        <v>2</v>
+        <f>'늑대 유닛'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f>'늑대 유닛'!J10</f>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>'늑대 유닛'!K12</f>
+        <f>'늑대 유닛'!K10</f>
         <v>1.7</v>
       </c>
     </row>
@@ -16451,17 +16451,17 @@
         <v>121</v>
       </c>
       <c r="G4" s="50"/>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="77" t="s">
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="78" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="37"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="74"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="52" t="s">
         <v>118</v>
       </c>
@@ -16489,10 +16489,10 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
       <c r="J5" s="50"/>
-      <c r="K5" s="78"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="50"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="75"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="52" t="s">
         <v>104</v>
       </c>
@@ -16520,10 +16520,10 @@
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
       <c r="J6" s="50"/>
-      <c r="K6" s="78"/>
+      <c r="K6" s="79"/>
       <c r="L6" s="50"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="75"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="52" t="s">
         <v>104</v>
       </c>
@@ -16551,10 +16551,10 @@
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
       <c r="J7" s="50"/>
-      <c r="K7" s="78"/>
+      <c r="K7" s="79"/>
       <c r="L7" s="50"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="75"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="52" t="s">
         <v>109</v>
       </c>
@@ -16582,10 +16582,10 @@
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
-      <c r="K8" s="79"/>
+      <c r="K8" s="80"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="76"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="77"/>
       <c r="O8" s="52" t="s">
         <v>104</v>
       </c>
